--- a/source/07_municipalities.xlsx
+++ b/source/07_municipalities.xlsx
@@ -22,7 +22,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
-    <t xml:space="preserve">Generally speaking, please tell me how satisfied you are with public transport where you live.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Generally speaking, please tell me </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">how satisfied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> you are with public transport where you live.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Very satisfied</t>
@@ -37,10 +64,64 @@
     <t xml:space="preserve">Very unsatisfied</t>
   </si>
   <si>
-    <t xml:space="preserve">Generally speaking, please tell me how satisfied you are with sport facilities where you live.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generally speaking, please tell me how satisfied you are with schools and other educational facilities where you live.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Generally speaking, please tell me </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">how satisfied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> you are with sport facilities where you live.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Generally speaking, please tell me </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">how satisfied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> you are with schools and other educational facilities where you live.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -50,11 +131,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,6 +152,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +203,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,83 +232,83 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
